--- a/data/trans_orig/Q19A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.5035585559419239</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.52732380766512</v>
+        <v>0.5273238076651199</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6825894477261292</v>
@@ -681,7 +681,7 @@
         <v>0.6776763520804046</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.715625352575748</v>
+        <v>0.7156253525757481</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5514624709593156</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3846477358380624</v>
+        <v>0.3816320699222204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5295514592003572</v>
+        <v>0.5169447503987035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4194055405868504</v>
+        <v>0.4127277375629393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4553800983939247</v>
+        <v>0.4626421101688758</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5473974041383033</v>
+        <v>0.5438329279034425</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5140493144520151</v>
+        <v>0.5275961403156116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5459236122193107</v>
+        <v>0.5586503240158733</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6243557391737824</v>
+        <v>0.6269442467473982</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4648758631319692</v>
+        <v>0.4774780447071093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.548795996942123</v>
+        <v>0.5577362599661309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5054273385572978</v>
+        <v>0.5095950142643469</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5594618857429774</v>
+        <v>0.5628462664725479</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6246345676242966</v>
+        <v>0.645766873625837</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8147445822207148</v>
+        <v>0.8112921257469132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6077189633131361</v>
+        <v>0.6030611935278052</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.602242542779172</v>
+        <v>0.6086009816488217</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9128497569920291</v>
+        <v>0.9037059500416068</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.816975859252337</v>
+        <v>0.8295538523528797</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8268054597927579</v>
+        <v>0.8437685289848634</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8197325756251294</v>
+        <v>0.8276483646012399</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.670472466522509</v>
+        <v>0.6873659300261324</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7501199858221685</v>
+        <v>0.7671303475187232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6656168638377444</v>
+        <v>0.6823820631536626</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6820130804083405</v>
+        <v>0.6893703969870353</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.4908632344355013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4598182538136567</v>
+        <v>0.4598182538136568</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7064455586657197</v>
@@ -817,7 +817,7 @@
         <v>0.7159383072290888</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.724413841107328</v>
+        <v>0.7244138411073282</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6536065497094244</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.450490265560922</v>
+        <v>0.4556395507199379</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4115812151272441</v>
+        <v>0.4046350311576359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.397040898853529</v>
+        <v>0.3971410507857824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3820983461192887</v>
+        <v>0.3851063257638683</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5776594944962021</v>
+        <v>0.5748857368802321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6134636462370654</v>
+        <v>0.5963865776492905</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.595308557074208</v>
+        <v>0.5997156442174073</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6215659328947275</v>
+        <v>0.6147243182693435</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5539498535446336</v>
+        <v>0.5432391306906535</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5102712188466629</v>
+        <v>0.5240000837174567</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5210691163532292</v>
+        <v>0.5187400522854855</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5129256712576737</v>
+        <v>0.5168527819264438</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9050549861201759</v>
+        <v>0.9251587573390723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6300284619951464</v>
+        <v>0.6233295994852218</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6375991486012889</v>
+        <v>0.6532166005150014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5570505888178928</v>
+        <v>0.5589731877551785</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9191237811106597</v>
+        <v>0.9256409386235437</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9252375743756346</v>
+        <v>0.929693374814926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8785947378846847</v>
+        <v>0.8728668970688415</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8817291924382124</v>
+        <v>0.8696378071798417</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8106518945220886</v>
+        <v>0.8163851621450076</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.712052474090574</v>
+        <v>0.704024276819837</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6984717157425044</v>
+        <v>0.7015764062832179</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6690128441063271</v>
+        <v>0.6722491974889987</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.4136026592965235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4731169332319841</v>
+        <v>0.4731169332319842</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.480874930797744</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4000424510356184</v>
+        <v>0.403960410152726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3183906760058647</v>
+        <v>0.3163212585901825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3416693451996564</v>
+        <v>0.3388020875070853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3881942001893305</v>
+        <v>0.3913864162884342</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3567074424922566</v>
+        <v>0.3379959558583907</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5944487348103663</v>
+        <v>0.6024345061554244</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3614715723844308</v>
+        <v>0.3650950586849171</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4399282264121564</v>
+        <v>0.4322608445815521</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4078170019301868</v>
+        <v>0.4118536629499471</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4211245829969811</v>
+        <v>0.4266386252610578</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3639675840715499</v>
+        <v>0.3589330515030495</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4313322031629339</v>
+        <v>0.4336902997049267</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6339734415787259</v>
+        <v>0.6436335400569625</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.522876248837571</v>
+        <v>0.5068184482251109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5081386417178198</v>
+        <v>0.5040629543023355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5732975864129295</v>
+        <v>0.5776599563814656</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.690971793033377</v>
+        <v>0.6738714812709801</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.191721111538816</v>
+        <v>1.16354005915223</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6522394841073345</v>
+        <v>0.6402987691273377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8061129525721986</v>
+        <v>0.8038342583635255</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6051723795040017</v>
+        <v>0.603770381959819</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6340124630579047</v>
+        <v>0.637653423222607</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5124755919318296</v>
+        <v>0.5119806676458716</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5965733497918516</v>
+        <v>0.5965627784746264</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.5234118830437456</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4770366850896528</v>
+        <v>0.4770366850896529</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3315390399757509</v>
+        <v>0.3283025938654132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2622485132824093</v>
+        <v>0.264820038837886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4082277191763887</v>
+        <v>0.4119220350940735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.309080698969226</v>
+        <v>0.3067927605061223</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4676440148353175</v>
+        <v>0.4674765019340631</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4716597118301741</v>
+        <v>0.4715962275773131</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5223260028300941</v>
+        <v>0.5214611292831585</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5462604166322254</v>
+        <v>0.5387277393751184</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3950296977067181</v>
+        <v>0.3928044037073603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3652302571113501</v>
+        <v>0.3643524306411631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4702726716302306</v>
+        <v>0.4735052435815836</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4259453311477239</v>
+        <v>0.4273845339796958</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4619567176531282</v>
+        <v>0.4649977049418033</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3639167422535859</v>
+        <v>0.3698437994774558</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5595862945480403</v>
+        <v>0.554804244001508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5021292662070325</v>
+        <v>0.5030454619907091</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7410653781706315</v>
+        <v>0.7278123560904941</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6983040428116001</v>
+        <v>0.7032802494304344</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6876054687930282</v>
+        <v>0.6856449900811799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7143761143042617</v>
+        <v>0.7036385344232127</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5187346031568474</v>
+        <v>0.5199085963376729</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4783470998902979</v>
+        <v>0.4798778809741133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5864577887396375</v>
+        <v>0.58144877535414</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5579099512725006</v>
+        <v>0.55035964593612</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.5053558082075862</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.461866483194705</v>
+        <v>0.4618664831947051</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4248407060125991</v>
@@ -1237,7 +1237,7 @@
         <v>0.4476751297318074</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3900437510547312</v>
+        <v>0.3900437510547313</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2203652420572494</v>
+        <v>0.2181149941428219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2714450450274169</v>
+        <v>0.2644661513629951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3166935584699712</v>
+        <v>0.3121954367546015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2187572662861418</v>
+        <v>0.2176359450648345</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4226570802490029</v>
+        <v>0.4228773783949086</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5375216297085743</v>
+        <v>0.5380500586803989</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4290483825699812</v>
+        <v>0.4274632170291529</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3828838030657891</v>
+        <v>0.3772444759504592</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3645333861703212</v>
+        <v>0.3627878383992359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4568171177411339</v>
+        <v>0.4495585069756413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3922081404090915</v>
+        <v>0.3957264762179153</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3301523741833328</v>
+        <v>0.3302232652093919</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4325329352179794</v>
+        <v>0.4373541653904608</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.451683593374845</v>
+        <v>0.4506649188548958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4586821000327644</v>
+        <v>0.4810635009055853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3883047778887824</v>
+        <v>0.3879596036634494</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6181161277386126</v>
+        <v>0.6130519675046209</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.783639060222863</v>
+        <v>0.7767893503457755</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6011751508288362</v>
+        <v>0.6084504493045511</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6003185606557241</v>
+        <v>0.6004226684321318</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5025899778652737</v>
+        <v>0.5083736948950061</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6172240284016899</v>
+        <v>0.6124957182878368</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5048046183545046</v>
+        <v>0.511088896010492</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4760748472222532</v>
+        <v>0.4798312366697124</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.7393341924704085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4990438810816095</v>
+        <v>0.4990438810816097</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4222947609581716</v>
@@ -1361,7 +1361,7 @@
         <v>0.4809937285417235</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3938995971809513</v>
+        <v>0.3938995971809514</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4051175760105844</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2646328861071898</v>
+        <v>0.2666253942146521</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.47623864713683</v>
+        <v>0.4793818420123734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5973694792082174</v>
+        <v>0.5996548263202085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3344070372422902</v>
+        <v>0.3334664334618098</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3672067021090248</v>
+        <v>0.3715485629530478</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4482747518323117</v>
+        <v>0.4381219924968558</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4258408180267664</v>
+        <v>0.424982862293361</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3247416198410056</v>
+        <v>0.3217081370096943</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3662152181836186</v>
+        <v>0.3609830671373292</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4659333477293454</v>
+        <v>0.4714567026757204</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4825389569734543</v>
+        <v>0.477630482027331</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3437156271675785</v>
+        <v>0.3503016996748415</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4286655635776561</v>
+        <v>0.4348652492743955</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7829655516567436</v>
+        <v>0.7811288908708369</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.918722587954003</v>
+        <v>0.9473333259746384</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7479381161053538</v>
+        <v>0.7503041115490653</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4869602234860298</v>
+        <v>0.4865273684080134</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6662154823574264</v>
+        <v>0.6591782999549426</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.54803889545367</v>
+        <v>0.5477478015180809</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.514852197106311</v>
+        <v>0.5329743037273268</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.466733507520518</v>
+        <v>0.4608111163721186</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6462437718974023</v>
+        <v>0.6548481437777842</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6083089965331594</v>
+        <v>0.5979155340186731</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5292283578655972</v>
+        <v>0.5372483702127256</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.4747591544457325</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4170066171501155</v>
+        <v>0.4170066171501154</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.5222236344044628</v>
@@ -1509,7 +1509,7 @@
         <v>0.5167212021495733</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4871773754813764</v>
+        <v>0.4871773754813762</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3869729764807688</v>
+        <v>0.3827283336416502</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3821063398661649</v>
+        <v>0.3840256112789796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4353724773786136</v>
+        <v>0.4369394583191356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3798383333690785</v>
+        <v>0.3814260929477171</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4799341393038324</v>
+        <v>0.4808963318308316</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5618571271319378</v>
+        <v>0.5593057537757755</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5202188370589855</v>
+        <v>0.5213798622922842</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5167220895174162</v>
+        <v>0.513736085480478</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4457470080293051</v>
+        <v>0.4428981102395046</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4829030066454886</v>
+        <v>0.4816935264761042</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4884537180558405</v>
+        <v>0.4902206173289311</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4569314089900113</v>
+        <v>0.4605968273235918</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4792320914593401</v>
+        <v>0.4741745180328944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4621539069043457</v>
+        <v>0.4599399793997807</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5145114607931216</v>
+        <v>0.5179403679224224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4675652343686978</v>
+        <v>0.4602205452527939</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5704808244384423</v>
+        <v>0.5679126084876146</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6737178700005531</v>
+        <v>0.6724227602750014</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5966161083925056</v>
+        <v>0.5978403581904129</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6047277835942952</v>
+        <v>0.6004290996224484</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5096516546659073</v>
+        <v>0.5079095452966583</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5517103093315637</v>
+        <v>0.5505216575027198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5449338963915027</v>
+        <v>0.5458707455727824</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.518885766521562</v>
+        <v>0.5221499498261031</v>
       </c>
     </row>
     <row r="25">
